--- a/data/Larvae.xlsx
+++ b/data/Larvae.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98A0A30-A346-49C5-A2F3-5DF01623BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{F98A0A30-A346-49C5-A2F3-5DF01623BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E82D64B-7E2E-45CD-B017-F9B0A365CA49}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-90" yWindow="0" windowWidth="14380" windowHeight="7270" xr2:uid="{46C13484-1FF9-4DFC-AA32-BC60FC8665E5}"/>
+    <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{46C13484-1FF9-4DFC-AA32-BC60FC8665E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Larvas Lisso" sheetId="1" r:id="rId1"/>
+    <sheet name="Lisso larvae" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,24 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="14">
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>ID Parcela</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Repetición</t>
-  </si>
-  <si>
-    <t>Abundancia</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
@@ -77,7 +59,25 @@
     <t>+5 ADULTOS RECIEN EMERGIDOS</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Dato no apuntado</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Abundance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Repeat</t>
   </si>
 </sst>
 </file>
@@ -258,12 +258,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEE8C3E0-BFFC-4C4F-A6EF-BEAECF2FDB75}" name="Tabla1" displayName="Tabla1" ref="A1:F501" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F501" xr:uid="{DEE25006-57C4-468D-9204-AB3F3B6C19D3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E5400A99-6876-4766-8AD1-FADB1C5595A3}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{909CE776-F84E-4BE5-A6C4-F97962D04069}" name="ID Parcela" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B27F255F-A962-43BA-8F77-7CAA9303B848}" name="Tratamiento" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0A2420D5-37B8-48B6-AC97-BE0BD3B95F70}" name="Repetición" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0299E61D-981B-4C11-B285-EC3D621BD3B0}" name="Abundancia" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{02EC2731-B94A-418B-AE20-B517AAD4F3B3}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E5400A99-6876-4766-8AD1-FADB1C5595A3}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{909CE776-F84E-4BE5-A6C4-F97962D04069}" name="Field" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B27F255F-A962-43BA-8F77-7CAA9303B848}" name="Treatment" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0A2420D5-37B8-48B6-AC97-BE0BD3B95F70}" name="Repeat" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0299E61D-981B-4C11-B285-EC3D621BD3B0}" name="Abundance" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{02EC2731-B94A-418B-AE20-B517AAD4F3B3}" name="Observations" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,38 +568,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEBE04C-2E8B-4704-AA34-3A285004F75D}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="63.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -1312,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -1402,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
         <v>5</v>
@@ -1420,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
@@ -1492,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1546,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -1582,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -1636,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
@@ -1672,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
@@ -1690,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -1744,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -1762,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
@@ -1780,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>4</v>
@@ -1852,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -1870,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -1906,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -1924,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
         <v>4</v>
@@ -1942,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -1960,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -1996,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -2014,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -2050,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
@@ -2104,7 +2104,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>4</v>
@@ -2122,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -2176,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
@@ -2194,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
         <v>4</v>
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1">
         <v>5</v>
@@ -2230,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
@@ -2266,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -2302,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -2320,7 +2320,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -2356,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -2374,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1">
         <v>4</v>
@@ -2392,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
         <v>5</v>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
         <v>2</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>4</v>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
         <v>2</v>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
         <v>4</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1">
         <v>4</v>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1">
         <v>5</v>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1">
         <v>3</v>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D120" s="1">
         <v>4</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -2808,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
         <v>4</v>
@@ -2844,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -2862,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -2898,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
@@ -2916,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D130" s="1">
         <v>4</v>
@@ -2934,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D131" s="1">
         <v>5</v>
@@ -2952,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -2988,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D134" s="1">
         <v>3</v>
@@ -3006,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D135" s="1">
         <v>4</v>
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
@@ -3042,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -3078,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D139" s="1">
         <v>3</v>
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D140" s="1">
         <v>4</v>
@@ -3114,7 +3114,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1">
         <v>5</v>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -3150,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -3168,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D144" s="1">
         <v>3</v>
@@ -3186,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D145" s="1">
         <v>4</v>
@@ -3204,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D146" s="1">
         <v>5</v>
@@ -3222,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -3258,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1">
         <v>3</v>
@@ -3276,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3294,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D151" s="1">
         <v>5</v>
@@ -3312,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -3330,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D154" s="1">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D155" s="1">
         <v>4</v>
@@ -3384,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
@@ -3402,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1">
         <v>3</v>
@@ -3456,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D160" s="1">
         <v>4</v>
@@ -3474,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D161" s="1">
         <v>5</v>
@@ -3492,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -3510,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -3528,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1">
         <v>3</v>
@@ -3546,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1">
         <v>4</v>
@@ -3564,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D166" s="1">
         <v>5</v>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -3600,7 +3600,7 @@
         <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1">
         <v>2</v>
@@ -3618,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1">
         <v>4</v>
@@ -3654,7 +3654,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1">
         <v>5</v>
@@ -3672,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -3708,7 +3708,7 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D174" s="1">
         <v>3</v>
@@ -3726,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D175" s="1">
         <v>4</v>
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
@@ -3762,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D178" s="1">
         <v>2</v>
@@ -3798,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D179" s="1">
         <v>3</v>
@@ -3816,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D180" s="1">
         <v>4</v>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D181" s="1">
         <v>5</v>
@@ -3852,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -3870,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -3888,7 +3888,7 @@
         <v>5</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D184" s="1">
         <v>3</v>
@@ -3906,7 +3906,7 @@
         <v>5</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D185" s="1">
         <v>4</v>
@@ -3924,7 +3924,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D186" s="1">
         <v>5</v>
@@ -3942,7 +3942,7 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -3978,7 +3978,7 @@
         <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D189" s="1">
         <v>3</v>
@@ -3996,7 +3996,7 @@
         <v>5</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D190" s="1">
         <v>4</v>
@@ -4014,7 +4014,7 @@
         <v>5</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D191" s="1">
         <v>5</v>
@@ -4032,7 +4032,7 @@
         <v>5</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -4068,7 +4068,7 @@
         <v>5</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D194" s="1">
         <v>3</v>
@@ -4086,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D195" s="1">
         <v>4</v>
@@ -4104,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D196" s="1">
         <v>5</v>
@@ -4122,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>5</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -4158,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1">
         <v>3</v>
@@ -4176,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D200" s="1">
         <v>4</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1">
         <v>5</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D203" s="1">
         <v>2</v>
@@ -4250,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D204" s="1">
         <v>3</v>
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D205" s="1">
         <v>4</v>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D206" s="1">
         <v>5</v>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D207" s="1">
         <v>1</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D208" s="1">
         <v>2</v>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D209" s="1">
         <v>3</v>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D210" s="1">
         <v>4</v>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D211" s="1">
         <v>5</v>
@@ -4385,7 +4385,7 @@
         <v>5</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -4432,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D214" s="1">
         <v>3</v>
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D215" s="1">
         <v>4</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D216" s="1">
         <v>5</v>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D219" s="1">
         <v>3</v>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D220" s="1">
         <v>4</v>
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D221" s="1">
         <v>5</v>
@@ -4576,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -4594,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D224" s="1">
         <v>3</v>
@@ -4630,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D225" s="1">
         <v>4</v>
@@ -4648,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D226" s="1">
         <v>5</v>
@@ -4666,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D227" s="1">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -4702,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D229" s="1">
         <v>3</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D230" s="1">
         <v>4</v>
@@ -4738,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D231" s="1">
         <v>5</v>
@@ -4756,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D233" s="1">
         <v>2</v>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D234" s="1">
         <v>3</v>
@@ -4810,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D235" s="1">
         <v>4</v>
@@ -4828,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D236" s="1">
         <v>5</v>
@@ -4846,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D237" s="1">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D238" s="1">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1">
         <v>3</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D240" s="1">
         <v>4</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D241" s="1">
         <v>5</v>
@@ -4936,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -4954,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D243" s="1">
         <v>2</v>
@@ -4972,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D244" s="1">
         <v>3</v>
@@ -4990,7 +4990,7 @@
         <v>3</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D245" s="1">
         <v>4</v>
@@ -5008,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D246" s="1">
         <v>5</v>
@@ -5026,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -5044,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D248" s="1">
         <v>2</v>
@@ -5062,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D249" s="1">
         <v>3</v>
@@ -5080,7 +5080,7 @@
         <v>3</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D250" s="1">
         <v>4</v>
@@ -5098,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D251" s="1">
         <v>5</v>
@@ -5116,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D253" s="1">
         <v>2</v>
@@ -5152,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D254" s="1">
         <v>3</v>
@@ -5170,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D255" s="1">
         <v>4</v>
@@ -5188,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D256" s="1">
         <v>5</v>
@@ -5206,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D258" s="1">
         <v>2</v>
@@ -5242,7 +5242,7 @@
         <v>3</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D259" s="1">
         <v>3</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D260" s="1">
         <v>4</v>
@@ -5278,7 +5278,7 @@
         <v>3</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D261" s="1">
         <v>5</v>
@@ -5296,7 +5296,7 @@
         <v>4</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -5314,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D263" s="1">
         <v>2</v>
@@ -5332,7 +5332,7 @@
         <v>4</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D264" s="1">
         <v>3</v>
@@ -5350,7 +5350,7 @@
         <v>4</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D265" s="1">
         <v>4</v>
@@ -5368,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D266" s="1">
         <v>5</v>
@@ -5386,7 +5386,7 @@
         <v>4</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -5422,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D269" s="1">
         <v>3</v>
@@ -5440,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D270" s="1">
         <v>4</v>
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D271" s="1">
         <v>5</v>
@@ -5476,7 +5476,7 @@
         <v>4</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D272" s="1">
         <v>1</v>
@@ -5494,7 +5494,7 @@
         <v>4</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D273" s="1">
         <v>2</v>
@@ -5512,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D274" s="1">
         <v>3</v>
@@ -5530,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D275" s="1">
         <v>4</v>
@@ -5548,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D276" s="1">
         <v>5</v>
@@ -5566,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D277" s="1">
         <v>1</v>
@@ -5584,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D278" s="1">
         <v>2</v>
@@ -5602,7 +5602,7 @@
         <v>4</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D279" s="1">
         <v>3</v>
@@ -5620,7 +5620,7 @@
         <v>4</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D280" s="1">
         <v>4</v>
@@ -5638,7 +5638,7 @@
         <v>4</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D281" s="1">
         <v>5</v>
@@ -5656,7 +5656,7 @@
         <v>5</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D282" s="1">
         <v>1</v>
@@ -5674,7 +5674,7 @@
         <v>5</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D283" s="1">
         <v>2</v>
@@ -5692,7 +5692,7 @@
         <v>5</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D284" s="1">
         <v>3</v>
@@ -5710,7 +5710,7 @@
         <v>5</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D285" s="1">
         <v>4</v>
@@ -5728,7 +5728,7 @@
         <v>5</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D286" s="1">
         <v>5</v>
@@ -5746,7 +5746,7 @@
         <v>5</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D287" s="1">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>5</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D288" s="1">
         <v>2</v>
@@ -5782,7 +5782,7 @@
         <v>5</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D289" s="1">
         <v>3</v>
@@ -5800,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D290" s="1">
         <v>4</v>
@@ -5818,7 +5818,7 @@
         <v>5</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D291" s="1">
         <v>5</v>
@@ -5836,7 +5836,7 @@
         <v>5</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D292" s="1">
         <v>1</v>
@@ -5854,7 +5854,7 @@
         <v>5</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D293" s="1">
         <v>2</v>
@@ -5872,7 +5872,7 @@
         <v>5</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D294" s="1">
         <v>3</v>
@@ -5890,7 +5890,7 @@
         <v>5</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D295" s="1">
         <v>4</v>
@@ -5908,7 +5908,7 @@
         <v>5</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D296" s="1">
         <v>5</v>
@@ -5926,7 +5926,7 @@
         <v>5</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D297" s="1">
         <v>1</v>
@@ -5944,7 +5944,7 @@
         <v>5</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D298" s="1">
         <v>2</v>
@@ -5962,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D299" s="1">
         <v>3</v>
@@ -5980,7 +5980,7 @@
         <v>5</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D300" s="1">
         <v>4</v>
@@ -5998,7 +5998,7 @@
         <v>5</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D301" s="1">
         <v>5</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D302" s="1">
         <v>1</v>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D303" s="1">
         <v>2</v>
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D304" s="1">
         <v>3</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D305" s="1">
         <v>4</v>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D306" s="1">
         <v>5</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D307" s="1">
         <v>1</v>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D308" s="1">
         <v>2</v>
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D309" s="1">
         <v>3</v>
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D310" s="1">
         <v>4</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D311" s="1">
         <v>5</v>
@@ -6196,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D313" s="1">
         <v>2</v>
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D314" s="1">
         <v>3</v>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D315" s="1">
         <v>4</v>
@@ -6268,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D316" s="1">
         <v>5</v>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D318" s="1">
         <v>2</v>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D319" s="1">
         <v>3</v>
@@ -6340,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D320" s="1">
         <v>4</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D321" s="1">
         <v>5</v>
@@ -6376,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D322" s="1">
         <v>1</v>
@@ -6394,7 +6394,7 @@
         <v>2</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D323" s="1">
         <v>2</v>
@@ -6412,7 +6412,7 @@
         <v>2</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D324" s="1">
         <v>3</v>
@@ -6430,7 +6430,7 @@
         <v>2</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D325" s="1">
         <v>4</v>
@@ -6448,7 +6448,7 @@
         <v>2</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D326" s="1">
         <v>5</v>
@@ -6466,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D328" s="1">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D329" s="1">
         <v>3</v>
@@ -6520,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D330" s="1">
         <v>4</v>
@@ -6538,7 +6538,7 @@
         <v>2</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D331" s="1">
         <v>5</v>
@@ -6556,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D332" s="1">
         <v>1</v>
@@ -6574,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
@@ -6592,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D334" s="1">
         <v>3</v>
@@ -6610,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D335" s="1">
         <v>4</v>
@@ -6628,7 +6628,7 @@
         <v>2</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D336" s="1">
         <v>5</v>
@@ -6646,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D337" s="1">
         <v>1</v>
@@ -6664,7 +6664,7 @@
         <v>2</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D338" s="1">
         <v>2</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D339" s="1">
         <v>3</v>
@@ -6700,7 +6700,7 @@
         <v>2</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D340" s="1">
         <v>4</v>
@@ -6718,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D341" s="1">
         <v>5</v>
@@ -6736,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D342" s="1">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>3</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D343" s="1">
         <v>2</v>
@@ -6772,7 +6772,7 @@
         <v>3</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D344" s="1">
         <v>3</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D345" s="1">
         <v>4</v>
@@ -6808,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D346" s="1">
         <v>5</v>
@@ -6826,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D347" s="1">
         <v>1</v>
@@ -6844,7 +6844,7 @@
         <v>3</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D348" s="1">
         <v>2</v>
@@ -6862,15 +6862,15 @@
         <v>3</v>
       </c>
       <c r="C349" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D349" s="1">
+        <v>3</v>
+      </c>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D349" s="1">
-        <v>3</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F349" s="1"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
@@ -6880,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D350" s="1">
         <v>4</v>
@@ -6898,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D351" s="1">
         <v>5</v>
@@ -6916,7 +6916,7 @@
         <v>3</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D352" s="1">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D353" s="1">
         <v>2</v>
@@ -6952,7 +6952,7 @@
         <v>3</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D354" s="1">
         <v>3</v>
@@ -6970,7 +6970,7 @@
         <v>3</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D355" s="1">
         <v>4</v>
@@ -6988,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D356" s="1">
         <v>5</v>
@@ -7006,7 +7006,7 @@
         <v>3</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D357" s="1">
         <v>1</v>
@@ -7024,7 +7024,7 @@
         <v>3</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D358" s="1">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D359" s="1">
         <v>3</v>
@@ -7060,7 +7060,7 @@
         <v>3</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D360" s="1">
         <v>4</v>
@@ -7078,7 +7078,7 @@
         <v>3</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D361" s="1">
         <v>5</v>
@@ -7096,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D362" s="1">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D363" s="1">
         <v>2</v>
@@ -7132,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D364" s="1">
         <v>3</v>
@@ -7150,7 +7150,7 @@
         <v>4</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D365" s="1">
         <v>4</v>
@@ -7168,7 +7168,7 @@
         <v>4</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D366" s="1">
         <v>5</v>
@@ -7186,7 +7186,7 @@
         <v>4</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D367" s="1">
         <v>1</v>
@@ -7204,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D368" s="1">
         <v>2</v>
@@ -7222,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D369" s="1">
         <v>3</v>
@@ -7240,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D370" s="1">
         <v>4</v>
@@ -7258,7 +7258,7 @@
         <v>4</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D371" s="1">
         <v>5</v>
@@ -7276,7 +7276,7 @@
         <v>4</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D372" s="1">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>4</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D373" s="1">
         <v>2</v>
@@ -7312,7 +7312,7 @@
         <v>4</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D374" s="1">
         <v>3</v>
@@ -7330,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D375" s="1">
         <v>4</v>
@@ -7348,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D376" s="1">
         <v>5</v>
@@ -7366,7 +7366,7 @@
         <v>4</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D377" s="1">
         <v>1</v>
@@ -7384,7 +7384,7 @@
         <v>4</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D378" s="1">
         <v>2</v>
@@ -7402,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D379" s="1">
         <v>3</v>
@@ -7420,7 +7420,7 @@
         <v>4</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D380" s="1">
         <v>4</v>
@@ -7438,7 +7438,7 @@
         <v>4</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D381" s="1">
         <v>5</v>
@@ -7456,7 +7456,7 @@
         <v>5</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D382" s="1">
         <v>1</v>
@@ -7474,7 +7474,7 @@
         <v>5</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D383" s="1">
         <v>2</v>
@@ -7492,7 +7492,7 @@
         <v>5</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D384" s="1">
         <v>3</v>
@@ -7510,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D385" s="1">
         <v>4</v>
@@ -7528,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D386" s="1">
         <v>5</v>
@@ -7546,7 +7546,7 @@
         <v>5</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D387" s="1">
         <v>1</v>
@@ -7564,7 +7564,7 @@
         <v>5</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D388" s="1">
         <v>2</v>
@@ -7582,7 +7582,7 @@
         <v>5</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D389" s="1">
         <v>3</v>
@@ -7600,7 +7600,7 @@
         <v>5</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D390" s="1">
         <v>4</v>
@@ -7618,7 +7618,7 @@
         <v>5</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D391" s="1">
         <v>5</v>
@@ -7636,7 +7636,7 @@
         <v>5</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D392" s="1">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>5</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D393" s="1">
         <v>2</v>
@@ -7672,7 +7672,7 @@
         <v>5</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D394" s="1">
         <v>3</v>
@@ -7690,7 +7690,7 @@
         <v>5</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D395" s="1">
         <v>4</v>
@@ -7708,7 +7708,7 @@
         <v>5</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D396" s="1">
         <v>5</v>
@@ -7726,7 +7726,7 @@
         <v>5</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D397" s="1">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>5</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D398" s="1">
         <v>2</v>
@@ -7762,7 +7762,7 @@
         <v>5</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D399" s="1">
         <v>3</v>
@@ -7780,7 +7780,7 @@
         <v>5</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D400" s="1">
         <v>4</v>
@@ -7798,7 +7798,7 @@
         <v>5</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D401" s="1">
         <v>5</v>
@@ -7816,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D402" s="1">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D403" s="1">
         <v>2</v>
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D404" s="1">
         <v>3</v>
@@ -7870,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D405" s="1">
         <v>4</v>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D406" s="1">
         <v>5</v>
@@ -7906,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D407" s="1">
         <v>1</v>
@@ -7924,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D408" s="1">
         <v>2</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D409" s="1">
         <v>3</v>
@@ -7960,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D410" s="1">
         <v>4</v>
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D411" s="1">
         <v>5</v>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D412" s="1">
         <v>1</v>
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D413" s="1">
         <v>2</v>
@@ -8032,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D414" s="1">
         <v>3</v>
@@ -8050,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D415" s="1">
         <v>4</v>
@@ -8068,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D416" s="1">
         <v>5</v>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D417" s="1">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D418" s="1">
         <v>2</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D419" s="1">
         <v>3</v>
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D420" s="1">
         <v>4</v>
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D421" s="1">
         <v>5</v>
@@ -8176,7 +8176,7 @@
         <v>2</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D422" s="1">
         <v>1</v>
@@ -8194,7 +8194,7 @@
         <v>2</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D423" s="1">
         <v>2</v>
@@ -8212,7 +8212,7 @@
         <v>2</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D424" s="1">
         <v>3</v>
@@ -8230,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D425" s="1">
         <v>4</v>
@@ -8248,7 +8248,7 @@
         <v>2</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D426" s="1">
         <v>5</v>
@@ -8266,7 +8266,7 @@
         <v>2</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D427" s="1">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>2</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D428" s="1">
         <v>2</v>
@@ -8302,7 +8302,7 @@
         <v>2</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D429" s="1">
         <v>3</v>
@@ -8320,7 +8320,7 @@
         <v>2</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D430" s="1">
         <v>4</v>
@@ -8338,7 +8338,7 @@
         <v>2</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D431" s="1">
         <v>5</v>
@@ -8356,7 +8356,7 @@
         <v>2</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D432" s="1">
         <v>1</v>
@@ -8374,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D433" s="1">
         <v>2</v>
@@ -8392,7 +8392,7 @@
         <v>2</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D434" s="1">
         <v>3</v>
@@ -8410,7 +8410,7 @@
         <v>2</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D435" s="1">
         <v>4</v>
@@ -8428,7 +8428,7 @@
         <v>2</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D436" s="1">
         <v>5</v>
@@ -8446,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D437" s="1">
         <v>1</v>
@@ -8464,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D438" s="1">
         <v>2</v>
@@ -8482,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D439" s="1">
         <v>3</v>
@@ -8500,7 +8500,7 @@
         <v>2</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D440" s="1">
         <v>4</v>
@@ -8518,7 +8518,7 @@
         <v>2</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D441" s="1">
         <v>5</v>
@@ -8536,7 +8536,7 @@
         <v>3</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D442" s="1">
         <v>1</v>
@@ -8554,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D443" s="1">
         <v>2</v>
@@ -8572,7 +8572,7 @@
         <v>3</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D444" s="1">
         <v>3</v>
@@ -8590,7 +8590,7 @@
         <v>3</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D445" s="1">
         <v>4</v>
@@ -8608,7 +8608,7 @@
         <v>3</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D446" s="1">
         <v>5</v>
@@ -8626,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D447" s="1">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>3</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D448" s="1">
         <v>2</v>
@@ -8662,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D449" s="1">
         <v>3</v>
@@ -8680,7 +8680,7 @@
         <v>3</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D450" s="1">
         <v>4</v>
@@ -8698,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D451" s="1">
         <v>5</v>
@@ -8716,7 +8716,7 @@
         <v>3</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D452" s="1">
         <v>1</v>
@@ -8734,7 +8734,7 @@
         <v>3</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D453" s="1">
         <v>2</v>
@@ -8752,7 +8752,7 @@
         <v>3</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D454" s="1">
         <v>3</v>
@@ -8770,7 +8770,7 @@
         <v>3</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D455" s="1">
         <v>4</v>
@@ -8788,7 +8788,7 @@
         <v>3</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D456" s="1">
         <v>5</v>
@@ -8806,7 +8806,7 @@
         <v>3</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D457" s="1">
         <v>1</v>
@@ -8824,7 +8824,7 @@
         <v>3</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D458" s="1">
         <v>2</v>
@@ -8842,7 +8842,7 @@
         <v>3</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D459" s="1">
         <v>3</v>
@@ -8860,7 +8860,7 @@
         <v>3</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D460" s="1">
         <v>4</v>
@@ -8878,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D461" s="1">
         <v>5</v>
@@ -8896,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D462" s="1">
         <v>1</v>
@@ -8914,7 +8914,7 @@
         <v>4</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D463" s="1">
         <v>2</v>
@@ -8932,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D464" s="1">
         <v>3</v>
@@ -8950,7 +8950,7 @@
         <v>4</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D465" s="1">
         <v>4</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D466" s="1">
         <v>5</v>
@@ -8986,7 +8986,7 @@
         <v>4</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D467" s="1">
         <v>1</v>
@@ -9004,7 +9004,7 @@
         <v>4</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D468" s="1">
         <v>2</v>
@@ -9022,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D469" s="1">
         <v>3</v>
@@ -9040,7 +9040,7 @@
         <v>4</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D470" s="1">
         <v>4</v>
@@ -9058,7 +9058,7 @@
         <v>4</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D471" s="1">
         <v>5</v>
@@ -9076,7 +9076,7 @@
         <v>4</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D472" s="1">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>4</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D473" s="1">
         <v>2</v>
@@ -9112,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D474" s="1">
         <v>3</v>
@@ -9130,7 +9130,7 @@
         <v>4</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D475" s="1">
         <v>4</v>
@@ -9148,7 +9148,7 @@
         <v>4</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D476" s="1">
         <v>5</v>
@@ -9166,7 +9166,7 @@
         <v>4</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D477" s="1">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>4</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D478" s="1">
         <v>2</v>
@@ -9202,7 +9202,7 @@
         <v>4</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D479" s="1">
         <v>3</v>
@@ -9220,7 +9220,7 @@
         <v>4</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D480" s="1">
         <v>4</v>
@@ -9238,7 +9238,7 @@
         <v>4</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D481" s="1">
         <v>5</v>
@@ -9256,7 +9256,7 @@
         <v>5</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D482" s="1">
         <v>1</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D483" s="1">
         <v>2</v>
@@ -9292,7 +9292,7 @@
         <v>5</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D484" s="1">
         <v>3</v>
@@ -9310,7 +9310,7 @@
         <v>5</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D485" s="1">
         <v>4</v>
@@ -9328,7 +9328,7 @@
         <v>5</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D486" s="1">
         <v>5</v>
@@ -9346,7 +9346,7 @@
         <v>5</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D487" s="1">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>5</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D488" s="1">
         <v>2</v>
@@ -9382,7 +9382,7 @@
         <v>5</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D489" s="1">
         <v>3</v>
@@ -9400,7 +9400,7 @@
         <v>5</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D490" s="1">
         <v>4</v>
@@ -9418,7 +9418,7 @@
         <v>5</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D491" s="1">
         <v>5</v>
@@ -9436,7 +9436,7 @@
         <v>5</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D492" s="1">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>5</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D493" s="1">
         <v>2</v>
@@ -9472,7 +9472,7 @@
         <v>5</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D494" s="1">
         <v>3</v>
@@ -9490,7 +9490,7 @@
         <v>5</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D495" s="1">
         <v>4</v>
@@ -9508,7 +9508,7 @@
         <v>5</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D496" s="1">
         <v>5</v>
@@ -9526,7 +9526,7 @@
         <v>5</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D497" s="1">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>5</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D498" s="1">
         <v>2</v>
@@ -9562,7 +9562,7 @@
         <v>5</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D499" s="1">
         <v>3</v>
@@ -9580,7 +9580,7 @@
         <v>5</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D500" s="1">
         <v>4</v>
@@ -9598,7 +9598,7 @@
         <v>5</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D501" s="1">
         <v>5</v>

--- a/data/Larvae.xlsx
+++ b/data/Larvae.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98A0A30-A346-49C5-A2F3-5DF01623BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{F98A0A30-A346-49C5-A2F3-5DF01623BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB537E1-DF5D-4EFB-9443-888112DD30FF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-90" yWindow="0" windowWidth="14380" windowHeight="7270" xr2:uid="{46C13484-1FF9-4DFC-AA32-BC60FC8665E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{46C13484-1FF9-4DFC-AA32-BC60FC8665E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Larvas Lisso" sheetId="1" r:id="rId1"/>
+    <sheet name="Lisso larvae" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,24 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="14">
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>ID Parcela</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Repetición</t>
-  </si>
-  <si>
-    <t>Abundancia</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
@@ -77,7 +59,25 @@
     <t>+5 ADULTOS RECIEN EMERGIDOS</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Dato no apuntado</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Abundance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Repeat</t>
   </si>
 </sst>
 </file>
@@ -258,12 +258,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEE8C3E0-BFFC-4C4F-A6EF-BEAECF2FDB75}" name="Tabla1" displayName="Tabla1" ref="A1:F501" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F501" xr:uid="{DEE25006-57C4-468D-9204-AB3F3B6C19D3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E5400A99-6876-4766-8AD1-FADB1C5595A3}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{909CE776-F84E-4BE5-A6C4-F97962D04069}" name="ID Parcela" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B27F255F-A962-43BA-8F77-7CAA9303B848}" name="Tratamiento" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0A2420D5-37B8-48B6-AC97-BE0BD3B95F70}" name="Repetición" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0299E61D-981B-4C11-B285-EC3D621BD3B0}" name="Abundancia" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{02EC2731-B94A-418B-AE20-B517AAD4F3B3}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E5400A99-6876-4766-8AD1-FADB1C5595A3}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{909CE776-F84E-4BE5-A6C4-F97962D04069}" name="Field" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B27F255F-A962-43BA-8F77-7CAA9303B848}" name="Treatment" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0A2420D5-37B8-48B6-AC97-BE0BD3B95F70}" name="Repeat" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0299E61D-981B-4C11-B285-EC3D621BD3B0}" name="Abundance" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{02EC2731-B94A-418B-AE20-B517AAD4F3B3}" name="Observations" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -568,38 +568,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEBE04C-2E8B-4704-AA34-3A285004F75D}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="63.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1006,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1114,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -1312,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -1402,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
         <v>5</v>
@@ -1420,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1474,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
@@ -1492,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1546,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -1582,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -1636,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
@@ -1672,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
@@ -1690,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -1744,7 +1744,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -1762,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
@@ -1780,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>4</v>
@@ -1852,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -1870,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -1906,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -1924,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
         <v>4</v>
@@ -1942,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -1960,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -1996,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -2014,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -2050,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
@@ -2104,7 +2104,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>4</v>
@@ -2122,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -2176,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
@@ -2194,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
         <v>4</v>
@@ -2212,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1">
         <v>5</v>
@@ -2230,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
@@ -2266,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -2302,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -2320,7 +2320,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -2356,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -2374,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1">
         <v>4</v>
@@ -2392,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
         <v>5</v>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
         <v>2</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>4</v>
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
         <v>2</v>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
         <v>4</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1">
         <v>4</v>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1">
         <v>5</v>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1">
         <v>3</v>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D120" s="1">
         <v>4</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -2808,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
         <v>4</v>
@@ -2844,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -2862,7 +2862,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -2898,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
@@ -2916,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D130" s="1">
         <v>4</v>
@@ -2934,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D131" s="1">
         <v>5</v>
@@ -2952,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -2988,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D134" s="1">
         <v>3</v>
@@ -3006,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D135" s="1">
         <v>4</v>
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
@@ -3042,7 +3042,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -3078,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D139" s="1">
         <v>3</v>
@@ -3096,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D140" s="1">
         <v>4</v>
@@ -3114,7 +3114,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1">
         <v>5</v>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -3150,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -3168,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D144" s="1">
         <v>3</v>
@@ -3186,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D145" s="1">
         <v>4</v>
@@ -3204,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D146" s="1">
         <v>5</v>
@@ -3222,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -3258,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1">
         <v>3</v>
@@ -3276,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3294,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D151" s="1">
         <v>5</v>
@@ -3312,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -3330,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D154" s="1">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D155" s="1">
         <v>4</v>
@@ -3384,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
@@ -3402,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -3438,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1">
         <v>3</v>
@@ -3456,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D160" s="1">
         <v>4</v>
@@ -3474,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D161" s="1">
         <v>5</v>
@@ -3492,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -3510,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -3528,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1">
         <v>3</v>
@@ -3546,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1">
         <v>4</v>
@@ -3564,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D166" s="1">
         <v>5</v>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -3600,7 +3600,7 @@
         <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1">
         <v>2</v>
@@ -3618,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1">
         <v>4</v>
@@ -3654,7 +3654,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1">
         <v>5</v>
@@ -3672,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -3708,7 +3708,7 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D174" s="1">
         <v>3</v>
@@ -3726,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D175" s="1">
         <v>4</v>
@@ -3744,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
@@ -3762,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D178" s="1">
         <v>2</v>
@@ -3798,7 +3798,7 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D179" s="1">
         <v>3</v>
@@ -3816,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D180" s="1">
         <v>4</v>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D181" s="1">
         <v>5</v>
@@ -3852,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -3870,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -3888,7 +3888,7 @@
         <v>5</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D184" s="1">
         <v>3</v>
@@ -3906,7 +3906,7 @@
         <v>5</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D185" s="1">
         <v>4</v>
@@ -3924,7 +3924,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D186" s="1">
         <v>5</v>
@@ -3942,7 +3942,7 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -3978,7 +3978,7 @@
         <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D189" s="1">
         <v>3</v>
@@ -3996,7 +3996,7 @@
         <v>5</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D190" s="1">
         <v>4</v>
@@ -4014,7 +4014,7 @@
         <v>5</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D191" s="1">
         <v>5</v>
@@ -4032,7 +4032,7 @@
         <v>5</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -4068,7 +4068,7 @@
         <v>5</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D194" s="1">
         <v>3</v>
@@ -4086,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D195" s="1">
         <v>4</v>
@@ -4104,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D196" s="1">
         <v>5</v>
@@ -4122,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>5</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -4158,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1">
         <v>3</v>
@@ -4176,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D200" s="1">
         <v>4</v>
@@ -4194,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1">
         <v>5</v>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D203" s="1">
         <v>2</v>
@@ -4250,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D204" s="1">
         <v>3</v>
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D205" s="1">
         <v>4</v>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D206" s="1">
         <v>5</v>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D207" s="1">
         <v>1</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D208" s="1">
         <v>2</v>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D209" s="1">
         <v>3</v>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D210" s="1">
         <v>4</v>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D211" s="1">
         <v>5</v>
@@ -4385,7 +4385,7 @@
         <v>5</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -4432,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D214" s="1">
         <v>3</v>
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D215" s="1">
         <v>4</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D216" s="1">
         <v>5</v>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D219" s="1">
         <v>3</v>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D220" s="1">
         <v>4</v>
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D221" s="1">
         <v>5</v>
@@ -4576,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -4594,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D224" s="1">
         <v>3</v>
@@ -4630,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D225" s="1">
         <v>4</v>
@@ -4648,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D226" s="1">
         <v>5</v>
@@ -4666,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D227" s="1">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -4702,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D229" s="1">
         <v>3</v>
@@ -4720,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D230" s="1">
         <v>4</v>
@@ -4738,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D231" s="1">
         <v>5</v>
@@ -4756,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D233" s="1">
         <v>2</v>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D234" s="1">
         <v>3</v>
@@ -4810,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D235" s="1">
         <v>4</v>
@@ -4828,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D236" s="1">
         <v>5</v>
@@ -4846,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D237" s="1">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D238" s="1">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1">
         <v>3</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D240" s="1">
         <v>4</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D241" s="1">
         <v>5</v>
@@ -4936,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -4954,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D243" s="1">
         <v>2</v>
@@ -4972,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D244" s="1">
         <v>3</v>
@@ -4990,7 +4990,7 @@
         <v>3</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D245" s="1">
         <v>4</v>
@@ -5008,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D246" s="1">
         <v>5</v>
@@ -5026,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -5044,7 +5044,7 @@
         <v>3</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D248" s="1">
         <v>2</v>
@@ -5062,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D249" s="1">
         <v>3</v>
@@ -5080,7 +5080,7 @@
         <v>3</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D250" s="1">
         <v>4</v>
@@ -5098,7 +5098,7 @@
         <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D251" s="1">
         <v>5</v>
@@ -5116,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D253" s="1">
         <v>2</v>
@@ -5152,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D254" s="1">
         <v>3</v>
@@ -5170,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D255" s="1">
         <v>4</v>
@@ -5188,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D256" s="1">
         <v>5</v>
@@ -5206,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D258" s="1">
         <v>2</v>
@@ -5242,7 +5242,7 @@
         <v>3</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D259" s="1">
         <v>3</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D260" s="1">
         <v>4</v>
@@ -5278,7 +5278,7 @@
         <v>3</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D261" s="1">
         <v>5</v>
@@ -5296,7 +5296,7 @@
         <v>4</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
@@ -5314,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D263" s="1">
         <v>2</v>
@@ -5332,7 +5332,7 @@
         <v>4</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D264" s="1">
         <v>3</v>
@@ -5350,7 +5350,7 @@
         <v>4</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D265" s="1">
         <v>4</v>
@@ -5368,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D266" s="1">
         <v>5</v>
@@ -5386,7 +5386,7 @@
         <v>4</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -5422,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D269" s="1">
         <v>3</v>
@@ -5440,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D270" s="1">
         <v>4</v>
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D271" s="1">
         <v>5</v>
@@ -5476,7 +5476,7 @@
         <v>4</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D272" s="1">
         <v>1</v>
@@ -5494,7 +5494,7 @@
         <v>4</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D273" s="1">
         <v>2</v>
@@ -5512,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D274" s="1">
         <v>3</v>
@@ -5530,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D275" s="1">
         <v>4</v>
@@ -5548,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D276" s="1">
         <v>5</v>
@@ -5566,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D277" s="1">
         <v>1</v>
@@ -5584,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D278" s="1">
         <v>2</v>
@@ -5602,7 +5602,7 @@
         <v>4</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D279" s="1">
         <v>3</v>
@@ -5620,7 +5620,7 @@
         <v>4</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D280" s="1">
         <v>4</v>
@@ -5638,7 +5638,7 @@
         <v>4</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D281" s="1">
         <v>5</v>
@@ -5656,7 +5656,7 @@
         <v>5</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D282" s="1">
         <v>1</v>
@@ -5674,7 +5674,7 @@
         <v>5</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D283" s="1">
         <v>2</v>
@@ -5692,7 +5692,7 @@
         <v>5</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D284" s="1">
         <v>3</v>
@@ -5710,7 +5710,7 @@
         <v>5</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D285" s="1">
         <v>4</v>
@@ -5728,7 +5728,7 @@
         <v>5</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D286" s="1">
         <v>5</v>
@@ -5746,7 +5746,7 @@
         <v>5</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D287" s="1">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>5</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D288" s="1">
         <v>2</v>
@@ -5782,7 +5782,7 @@
         <v>5</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D289" s="1">
         <v>3</v>
@@ -5800,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D290" s="1">
         <v>4</v>
@@ -5818,7 +5818,7 @@
         <v>5</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D291" s="1">
         <v>5</v>
@@ -5836,7 +5836,7 @@
         <v>5</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D292" s="1">
         <v>1</v>
@@ -5854,7 +5854,7 @@
         <v>5</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D293" s="1">
         <v>2</v>
@@ -5872,7 +5872,7 @@
         <v>5</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D294" s="1">
         <v>3</v>
@@ -5890,7 +5890,7 @@
         <v>5</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D295" s="1">
         <v>4</v>
@@ -5908,7 +5908,7 @@
         <v>5</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D296" s="1">
         <v>5</v>
@@ -5926,7 +5926,7 @@
         <v>5</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D297" s="1">
         <v>1</v>
@@ -5944,7 +5944,7 @@
         <v>5</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D298" s="1">
         <v>2</v>
@@ -5962,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D299" s="1">
         <v>3</v>
@@ -5980,7 +5980,7 @@
         <v>5</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D300" s="1">
         <v>4</v>
@@ -5998,7 +5998,7 @@
         <v>5</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D301" s="1">
         <v>5</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D302" s="1">
         <v>1</v>
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D303" s="1">
         <v>2</v>
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D304" s="1">
         <v>3</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D305" s="1">
         <v>4</v>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D306" s="1">
         <v>5</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D307" s="1">
         <v>1</v>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D308" s="1">
         <v>2</v>
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D309" s="1">
         <v>3</v>
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D310" s="1">
         <v>4</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D311" s="1">
         <v>5</v>
@@ -6196,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D312" s="1">
         <v>1</v>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D313" s="1">
         <v>2</v>
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D314" s="1">
         <v>3</v>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D315" s="1">
         <v>4</v>
@@ -6268,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D316" s="1">
         <v>5</v>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D317" s="1">
         <v>1</v>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D318" s="1">
         <v>2</v>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D319" s="1">
         <v>3</v>
@@ -6340,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D320" s="1">
         <v>4</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D321" s="1">
         <v>5</v>
@@ -6376,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D322" s="1">
         <v>1</v>
@@ -6394,7 +6394,7 @@
         <v>2</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D323" s="1">
         <v>2</v>
@@ -6412,7 +6412,7 @@
         <v>2</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D324" s="1">
         <v>3</v>
@@ -6430,7 +6430,7 @@
         <v>2</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D325" s="1">
         <v>4</v>
@@ -6448,7 +6448,7 @@
         <v>2</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D326" s="1">
         <v>5</v>
@@ -6466,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D327" s="1">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D328" s="1">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D329" s="1">
         <v>3</v>
@@ -6520,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D330" s="1">
         <v>4</v>
@@ -6538,7 +6538,7 @@
         <v>2</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D331" s="1">
         <v>5</v>
@@ -6556,7 +6556,7 @@
         <v>2</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D332" s="1">
         <v>1</v>
@@ -6574,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
@@ -6592,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D334" s="1">
         <v>3</v>
@@ -6610,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D335" s="1">
         <v>4</v>
@@ -6628,7 +6628,7 @@
         <v>2</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D336" s="1">
         <v>5</v>
@@ -6646,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D337" s="1">
         <v>1</v>
@@ -6664,7 +6664,7 @@
         <v>2</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D338" s="1">
         <v>2</v>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D339" s="1">
         <v>3</v>
@@ -6700,7 +6700,7 @@
         <v>2</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D340" s="1">
         <v>4</v>
@@ -6718,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D341" s="1">
         <v>5</v>
@@ -6736,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D342" s="1">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>3</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D343" s="1">
         <v>2</v>
@@ -6772,7 +6772,7 @@
         <v>3</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D344" s="1">
         <v>3</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D345" s="1">
         <v>4</v>
@@ -6808,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D346" s="1">
         <v>5</v>
@@ -6826,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D347" s="1">
         <v>1</v>
@@ -6844,7 +6844,7 @@
         <v>3</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D348" s="1">
         <v>2</v>
@@ -6862,15 +6862,15 @@
         <v>3</v>
       </c>
       <c r="C349" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D349" s="1">
+        <v>3</v>
+      </c>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D349" s="1">
-        <v>3</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F349" s="1"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
@@ -6880,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D350" s="1">
         <v>4</v>
@@ -6898,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D351" s="1">
         <v>5</v>
@@ -6916,7 +6916,7 @@
         <v>3</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D352" s="1">
         <v>1</v>
@@ -6934,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D353" s="1">
         <v>2</v>
@@ -6952,7 +6952,7 @@
         <v>3</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D354" s="1">
         <v>3</v>
@@ -6970,7 +6970,7 @@
         <v>3</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D355" s="1">
         <v>4</v>
@@ -6988,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D356" s="1">
         <v>5</v>
@@ -7006,7 +7006,7 @@
         <v>3</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D357" s="1">
         <v>1</v>
@@ -7024,7 +7024,7 @@
         <v>3</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D358" s="1">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D359" s="1">
         <v>3</v>
@@ -7060,7 +7060,7 @@
         <v>3</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D360" s="1">
         <v>4</v>
@@ -7078,7 +7078,7 @@
         <v>3</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D361" s="1">
         <v>5</v>
@@ -7096,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D362" s="1">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D363" s="1">
         <v>2</v>
@@ -7132,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D364" s="1">
         <v>3</v>
@@ -7150,7 +7150,7 @@
         <v>4</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D365" s="1">
         <v>4</v>
@@ -7168,7 +7168,7 @@
         <v>4</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D366" s="1">
         <v>5</v>
@@ -7186,7 +7186,7 @@
         <v>4</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D367" s="1">
         <v>1</v>
@@ -7204,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D368" s="1">
         <v>2</v>
@@ -7222,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D369" s="1">
         <v>3</v>
@@ -7240,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D370" s="1">
         <v>4</v>
@@ -7258,7 +7258,7 @@
         <v>4</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D371" s="1">
         <v>5</v>
@@ -7276,7 +7276,7 @@
         <v>4</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D372" s="1">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>4</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D373" s="1">
         <v>2</v>
@@ -7312,7 +7312,7 @@
         <v>4</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D374" s="1">
         <v>3</v>
@@ -7330,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D375" s="1">
         <v>4</v>
@@ -7348,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D376" s="1">
         <v>5</v>
@@ -7366,7 +7366,7 @@
         <v>4</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D377" s="1">
         <v>1</v>
@@ -7384,7 +7384,7 @@
         <v>4</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D378" s="1">
         <v>2</v>
@@ -7402,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D379" s="1">
         <v>3</v>
@@ -7420,7 +7420,7 @@
         <v>4</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D380" s="1">
         <v>4</v>
@@ -7438,7 +7438,7 @@
         <v>4</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D381" s="1">
         <v>5</v>
@@ -7456,7 +7456,7 @@
         <v>5</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D382" s="1">
         <v>1</v>
@@ -7474,7 +7474,7 @@
         <v>5</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D383" s="1">
         <v>2</v>
@@ -7492,7 +7492,7 @@
         <v>5</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D384" s="1">
         <v>3</v>
@@ -7510,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D385" s="1">
         <v>4</v>
@@ -7528,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D386" s="1">
         <v>5</v>
@@ -7546,7 +7546,7 @@
         <v>5</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D387" s="1">
         <v>1</v>
@@ -7564,7 +7564,7 @@
         <v>5</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D388" s="1">
         <v>2</v>
@@ -7582,7 +7582,7 @@
         <v>5</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D389" s="1">
         <v>3</v>
@@ -7600,7 +7600,7 @@
         <v>5</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D390" s="1">
         <v>4</v>
@@ -7618,7 +7618,7 @@
         <v>5</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D391" s="1">
         <v>5</v>
@@ -7636,7 +7636,7 @@
         <v>5</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D392" s="1">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>5</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D393" s="1">
         <v>2</v>
@@ -7672,7 +7672,7 @@
         <v>5</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D394" s="1">
         <v>3</v>
@@ -7690,7 +7690,7 @@
         <v>5</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D395" s="1">
         <v>4</v>
@@ -7708,7 +7708,7 @@
         <v>5</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D396" s="1">
         <v>5</v>
@@ -7726,7 +7726,7 @@
         <v>5</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D397" s="1">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>5</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D398" s="1">
         <v>2</v>
@@ -7762,7 +7762,7 @@
         <v>5</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D399" s="1">
         <v>3</v>
@@ -7780,7 +7780,7 @@
         <v>5</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D400" s="1">
         <v>4</v>
@@ -7798,7 +7798,7 @@
         <v>5</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D401" s="1">
         <v>5</v>
@@ -7816,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D402" s="1">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D403" s="1">
         <v>2</v>
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D404" s="1">
         <v>3</v>
@@ -7870,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D405" s="1">
         <v>4</v>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D406" s="1">
         <v>5</v>
@@ -7906,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D407" s="1">
         <v>1</v>
@@ -7924,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D408" s="1">
         <v>2</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D409" s="1">
         <v>3</v>
@@ -7960,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D410" s="1">
         <v>4</v>
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D411" s="1">
         <v>5</v>
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D412" s="1">
         <v>1</v>
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D413" s="1">
         <v>2</v>
@@ -8032,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D414" s="1">
         <v>3</v>
@@ -8050,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D415" s="1">
         <v>4</v>
@@ -8068,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D416" s="1">
         <v>5</v>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D417" s="1">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D418" s="1">
         <v>2</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D419" s="1">
         <v>3</v>
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D420" s="1">
         <v>4</v>
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D421" s="1">
         <v>5</v>
@@ -8176,7 +8176,7 @@
         <v>2</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D422" s="1">
         <v>1</v>
@@ -8194,7 +8194,7 @@
         <v>2</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D423" s="1">
         <v>2</v>
@@ -8212,7 +8212,7 @@
         <v>2</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D424" s="1">
         <v>3</v>
@@ -8230,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D425" s="1">
         <v>4</v>
@@ -8248,7 +8248,7 @@
         <v>2</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D426" s="1">
         <v>5</v>
@@ -8266,7 +8266,7 @@
         <v>2</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D427" s="1">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>2</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D428" s="1">
         <v>2</v>
@@ -8302,7 +8302,7 @@
         <v>2</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D429" s="1">
         <v>3</v>
@@ -8320,7 +8320,7 @@
         <v>2</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D430" s="1">
         <v>4</v>
@@ -8338,7 +8338,7 @@
         <v>2</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D431" s="1">
         <v>5</v>
@@ -8356,7 +8356,7 @@
         <v>2</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D432" s="1">
         <v>1</v>
@@ -8374,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D433" s="1">
         <v>2</v>
@@ -8392,7 +8392,7 @@
         <v>2</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D434" s="1">
         <v>3</v>
@@ -8410,7 +8410,7 @@
         <v>2</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D435" s="1">
         <v>4</v>
@@ -8428,7 +8428,7 @@
         <v>2</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D436" s="1">
         <v>5</v>
@@ -8446,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D437" s="1">
         <v>1</v>
@@ -8464,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D438" s="1">
         <v>2</v>
@@ -8482,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D439" s="1">
         <v>3</v>
@@ -8500,7 +8500,7 @@
         <v>2</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D440" s="1">
         <v>4</v>
@@ -8518,7 +8518,7 @@
         <v>2</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D441" s="1">
         <v>5</v>
@@ -8536,7 +8536,7 @@
         <v>3</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D442" s="1">
         <v>1</v>
@@ -8554,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D443" s="1">
         <v>2</v>
@@ -8572,7 +8572,7 @@
         <v>3</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D444" s="1">
         <v>3</v>
@@ -8590,7 +8590,7 @@
         <v>3</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D445" s="1">
         <v>4</v>
@@ -8608,7 +8608,7 @@
         <v>3</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D446" s="1">
         <v>5</v>
@@ -8626,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D447" s="1">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>3</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D448" s="1">
         <v>2</v>
@@ -8662,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D449" s="1">
         <v>3</v>
@@ -8680,7 +8680,7 @@
         <v>3</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D450" s="1">
         <v>4</v>
@@ -8698,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D451" s="1">
         <v>5</v>
@@ -8716,7 +8716,7 @@
         <v>3</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D452" s="1">
         <v>1</v>
@@ -8734,7 +8734,7 @@
         <v>3</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D453" s="1">
         <v>2</v>
@@ -8752,7 +8752,7 @@
         <v>3</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D454" s="1">
         <v>3</v>
@@ -8770,7 +8770,7 @@
         <v>3</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D455" s="1">
         <v>4</v>
@@ -8788,7 +8788,7 @@
         <v>3</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D456" s="1">
         <v>5</v>
@@ -8806,7 +8806,7 @@
         <v>3</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D457" s="1">
         <v>1</v>
@@ -8824,7 +8824,7 @@
         <v>3</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D458" s="1">
         <v>2</v>
@@ -8842,7 +8842,7 @@
         <v>3</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D459" s="1">
         <v>3</v>
@@ -8860,7 +8860,7 @@
         <v>3</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D460" s="1">
         <v>4</v>
@@ -8878,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D461" s="1">
         <v>5</v>
@@ -8896,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D462" s="1">
         <v>1</v>
@@ -8914,7 +8914,7 @@
         <v>4</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D463" s="1">
         <v>2</v>
@@ -8932,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D464" s="1">
         <v>3</v>
@@ -8950,7 +8950,7 @@
         <v>4</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D465" s="1">
         <v>4</v>
@@ -8968,7 +8968,7 @@
         <v>4</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D466" s="1">
         <v>5</v>
@@ -8986,7 +8986,7 @@
         <v>4</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D467" s="1">
         <v>1</v>
@@ -9004,7 +9004,7 @@
         <v>4</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D468" s="1">
         <v>2</v>
@@ -9022,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D469" s="1">
         <v>3</v>
@@ -9040,7 +9040,7 @@
         <v>4</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D470" s="1">
         <v>4</v>
@@ -9058,7 +9058,7 @@
         <v>4</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D471" s="1">
         <v>5</v>
@@ -9076,7 +9076,7 @@
         <v>4</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D472" s="1">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>4</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D473" s="1">
         <v>2</v>
@@ -9112,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D474" s="1">
         <v>3</v>
@@ -9130,7 +9130,7 @@
         <v>4</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D475" s="1">
         <v>4</v>
@@ -9148,7 +9148,7 @@
         <v>4</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D476" s="1">
         <v>5</v>
@@ -9166,7 +9166,7 @@
         <v>4</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D477" s="1">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>4</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D478" s="1">
         <v>2</v>
@@ -9202,7 +9202,7 @@
         <v>4</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D479" s="1">
         <v>3</v>
@@ -9220,7 +9220,7 @@
         <v>4</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D480" s="1">
         <v>4</v>
@@ -9238,7 +9238,7 @@
         <v>4</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D481" s="1">
         <v>5</v>
@@ -9256,7 +9256,7 @@
         <v>5</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D482" s="1">
         <v>1</v>
@@ -9274,7 +9274,7 @@
         <v>5</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D483" s="1">
         <v>2</v>
@@ -9292,7 +9292,7 @@
         <v>5</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D484" s="1">
         <v>3</v>
@@ -9310,7 +9310,7 @@
         <v>5</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D485" s="1">
         <v>4</v>
@@ -9328,7 +9328,7 @@
         <v>5</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D486" s="1">
         <v>5</v>
@@ -9346,7 +9346,7 @@
         <v>5</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D487" s="1">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>5</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D488" s="1">
         <v>2</v>
@@ -9382,7 +9382,7 @@
         <v>5</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D489" s="1">
         <v>3</v>
@@ -9400,7 +9400,7 @@
         <v>5</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D490" s="1">
         <v>4</v>
@@ -9418,7 +9418,7 @@
         <v>5</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D491" s="1">
         <v>5</v>
@@ -9436,7 +9436,7 @@
         <v>5</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D492" s="1">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>5</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D493" s="1">
         <v>2</v>
@@ -9472,7 +9472,7 @@
         <v>5</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D494" s="1">
         <v>3</v>
@@ -9490,7 +9490,7 @@
         <v>5</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D495" s="1">
         <v>4</v>
@@ -9508,7 +9508,7 @@
         <v>5</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D496" s="1">
         <v>5</v>
@@ -9526,7 +9526,7 @@
         <v>5</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D497" s="1">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>5</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D498" s="1">
         <v>2</v>
@@ -9562,7 +9562,7 @@
         <v>5</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D499" s="1">
         <v>3</v>
@@ -9580,7 +9580,7 @@
         <v>5</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D500" s="1">
         <v>4</v>
@@ -9598,7 +9598,7 @@
         <v>5</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D501" s="1">
         <v>5</v>
